--- a/pc.xlsx
+++ b/pc.xlsx
@@ -17,15 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>cpu</t>
   </si>
   <si>
-    <t>i58500</t>
-  </si>
-  <si>
-    <t>至强E3-1230 V3</t>
+    <t>i58500 3ghz 6 6</t>
+  </si>
+  <si>
+    <t>i58400  2.8 6 6</t>
+  </si>
+  <si>
+    <t>r5 2600 3.4 6 12</t>
   </si>
   <si>
     <t>主板</t>
@@ -40,16 +43,25 @@
     <t>华擎（ASRock） B85M-GL 主板</t>
   </si>
   <si>
+    <t>技嘉B450M DS3H</t>
+  </si>
+  <si>
     <t>内存</t>
   </si>
   <si>
-    <t>威刚8G 2400</t>
+    <t>威刚8G 2400/2666</t>
+  </si>
+  <si>
+    <t>十铨8g 2400</t>
+  </si>
+  <si>
+    <t>威刚8g 3200</t>
   </si>
   <si>
     <t>显卡</t>
   </si>
   <si>
-    <t>微星GTX1050</t>
+    <t>微星GTX1050ti 4g</t>
   </si>
   <si>
     <t>固态</t>
@@ -89,7 +101,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -249,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +263,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,6 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -433,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,157 +565,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,33 +1068,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1399</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1"/>
@@ -1090,43 +1116,64 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>499</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1"/>
@@ -1140,12 +1187,15 @@
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1199</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1165,18 +1215,18 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1196,16 +1246,16 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -1219,10 +1269,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1">

--- a/pc.xlsx
+++ b/pc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>cpu</t>
   </si>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铭瑄 1060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微星X370</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,11 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1810/2040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星960EVO</t>
+    <t>华硕 960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/2040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星960EVO 250g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -751,63 +751,80 @@
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1810</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9">
+        <v>3317</v>
       </c>
     </row>
   </sheetData>

--- a/pc.xlsx
+++ b/pc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>cpu</t>
   </si>
@@ -124,23 +124,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微星X370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r5 2600x 3.4 6 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华硕 960</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/2040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星960EVO 250g</t>
+    <t>CPU:AMD锐龙R5 1400</t>
+  </si>
+  <si>
+    <t>散热器：铜虎A40</t>
+  </si>
+  <si>
+    <t>主板：微星B350 MORTAR</t>
+  </si>
+  <si>
+    <t>内存：金士顿 DDR4 2400 8G *2</t>
+  </si>
+  <si>
+    <t>显卡：微星GTX1060 GAMING 6G</t>
+  </si>
+  <si>
+    <t>SSD：东芝 Q200 EX 240G SSD</t>
+  </si>
+  <si>
+    <t>机箱：爱国者 月光宝盒.破晓</t>
+  </si>
+  <si>
+    <t>电源：爱国者 电竞500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5 2600x </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星860EVO 500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.4 x 24.3 支持 2-Way NVIDIA® SLI™ 技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全汉蓝暴经典550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">先马坦克 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星X370 gaming plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威刚万紫千红8g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星960</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +201,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,12 +223,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -191,14 +252,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -515,7 +591,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -529,7 +605,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -538,7 +614,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -547,13 +623,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -561,19 +637,19 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,10 +658,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -596,7 +672,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -605,7 +681,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -614,19 +690,19 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -637,19 +713,19 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -660,7 +736,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
@@ -668,22 +744,22 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
@@ -691,22 +767,22 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
@@ -714,13 +790,13 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -740,96 +816,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1810</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2040</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>599</v>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3">
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3">
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9">
-        <v>3317</v>
+    <row r="11" spans="1:4">
+      <c r="C11">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,15 +949,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/pc.xlsx
+++ b/pc.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>cpu</t>
   </si>
@@ -124,30 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPU:AMD锐龙R5 1400</t>
-  </si>
-  <si>
-    <t>散热器：铜虎A40</t>
-  </si>
-  <si>
-    <t>主板：微星B350 MORTAR</t>
-  </si>
-  <si>
-    <t>内存：金士顿 DDR4 2400 8G *2</t>
-  </si>
-  <si>
-    <t>显卡：微星GTX1060 GAMING 6G</t>
-  </si>
-  <si>
-    <t>SSD：东芝 Q200 EX 240G SSD</t>
-  </si>
-  <si>
-    <t>机箱：爱国者 月光宝盒.破晓</t>
-  </si>
-  <si>
-    <t>电源：爱国者 电竞500</t>
-  </si>
-  <si>
     <t xml:space="preserve">r5 2600x </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +156,62 @@
   </si>
   <si>
     <t>微星960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3-1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威刚DDR3 1600*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星860EVO 500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +233,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +622,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -605,7 +636,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -614,7 +645,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
@@ -623,13 +654,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -637,19 +668,19 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -658,10 +689,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -672,7 +703,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -681,7 +712,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -690,19 +721,19 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
@@ -713,19 +744,19 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -736,7 +767,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
@@ -744,22 +775,22 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
@@ -767,22 +798,22 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B37" t="s">
@@ -790,13 +821,13 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -818,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -829,89 +860,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="7">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2">
         <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
         <v>369</v>
       </c>
     </row>
@@ -921,10 +952,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4">
       <c r="B15">
@@ -949,72 +980,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="30">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>970</v>
+      </c>
+      <c r="C3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
+      <c r="C8" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12">
+        <v>2868</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
